--- a/data/copySheet.xlsx
+++ b/data/copySheet.xlsx
@@ -1,109 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Template" sheetId="1" r:id="rId4"/>
+    <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>User Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Đã thay thế: "Don't Miss Out On This News" bằng "Don't Miss Out On This News"</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Send Date</t>
-  </si>
-  <si>
-    <t>History Content</t>
-  </si>
-  <si>
-    <t>History Date</t>
-  </si>
-  <si>
-    <t>Khoi Nguyen</t>
-  </si>
-  <si>
-    <t>khoi.nguyen@phalanxco.services</t>
-  </si>
-  <si>
-    <t>Don't Miss Out On This News</t>
-  </si>
-  <si>
-    <t>✅</t>
-  </si>
-  <si>
-    <t>Vu Chau</t>
-  </si>
-  <si>
-    <t>vu.chau@phalanxco.services</t>
-  </si>
-  <si>
-    <t>Hao Nguyen</t>
-  </si>
-  <si>
-    <t>hao.nguyen@phalanxco.services</t>
-  </si>
-  <si>
-    <t>This is the test from the Phalanx Services candidate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go to the previous edit to get the content </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="d mmmm, h:mm"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
       <color theme="1"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font/>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border/>
     <border>
       <left style="thin">
@@ -141,46 +82,116 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,102 +389,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.88"/>
-    <col customWidth="1" min="3" max="3" width="24.63"/>
-    <col customWidth="1" min="4" max="4" width="98.75"/>
-    <col customWidth="1" min="6" max="6" width="21.63"/>
-    <col customWidth="1" min="7" max="7" width="25.13"/>
-    <col customWidth="1" min="8" max="8" width="21.5"/>
+    <col width="25.88" customWidth="1" style="9" min="2" max="2"/>
+    <col width="24.63" customWidth="1" style="9" min="3" max="3"/>
+    <col width="98.75" customWidth="1" style="9" min="4" max="4"/>
+    <col width="21.63" customWidth="1" style="9" min="6" max="6"/>
+    <col width="25.13" customWidth="1" style="9" min="7" max="7"/>
+    <col width="21.5" customWidth="1" style="9" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>User Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Subject</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Đã thay thế: "Don't Miss Out On This News" bằng "Don't Miss Out On This News"</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Send Date</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>History Content</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>History Date</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="54.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5">
-        <v>45946.043020833335</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6">
-        <v>45920.74444444444</v>
+    <row r="2" ht="54.75" customHeight="1" s="9">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Khoi Nguyen</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>khoi.nguyen@phalanxco.services</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>Don't Miss Out On This News</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>Don't Miss Out On This News</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>2025-11-25 16:46:26</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Don't Miss Out On This News</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>17:52, 20 tháng 9</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="45.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+    <row r="3" ht="45.75" customHeight="1" s="9">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Vu Chau</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>vu.chau@phalanxco.services</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="n"/>
+      <c r="D3" s="10" t="n"/>
     </row>
-    <row r="4" ht="90.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>16</v>
+    <row r="4" ht="90.75" customHeight="1" s="9">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Hao Nguyen</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>hao.nguyen@phalanxco.services</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>This is the test from the Phalanx Services candidate</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>This is the test from the Phalanx Services candidate</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="D7" s="3" t="s">
-        <v>17</v>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Go to the previous edit to get the content </t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -481,6 +542,6 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>